--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC0DE9-8D06-471D-A68E-FBB094195492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21834223-DCBC-48E5-99A3-5AED85B2450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>RuleSet</t>
   </si>
@@ -76,39 +75,9 @@
     <t>Alarm Duration</t>
   </si>
   <si>
-    <t>"Clock Reference abnormal Alarm"</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
-    <t>Clock</t>
-  </si>
-  <si>
-    <t>"RF Unit ALD Current Out of Range"</t>
-  </si>
-  <si>
-    <t>"Inter-System Site-Level Configuration Conflict"</t>
-  </si>
-  <si>
-    <t>"Inter-System BBU Board Parameter Settings Conflict"</t>
-  </si>
-  <si>
-    <t>"RET Configuration Data Lost Alarm"</t>
-  </si>
-  <si>
-    <t>RET</t>
-  </si>
-  <si>
-    <t>Inter BBU</t>
-  </si>
-  <si>
-    <t>Site-level</t>
-  </si>
-  <si>
-    <t>RF ALD Current</t>
-  </si>
-  <si>
     <t>"FJW"</t>
   </si>
   <si>
@@ -151,54 +120,6 @@
     <t>"BTS:CATEGORY"</t>
   </si>
   <si>
-    <t>"RF Unit Clock Problem"</t>
-  </si>
-  <si>
-    <t>RF Unit</t>
-  </si>
-  <si>
-    <t>"RET Antenna Motor Fault"</t>
-  </si>
-  <si>
-    <t>RET Antena</t>
-  </si>
-  <si>
-    <t>"Door open"</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>"Heartbeat Failure"</t>
-  </si>
-  <si>
-    <t>"Battery Missing"</t>
-  </si>
-  <si>
-    <t>"Circuit Breaker Tripped"</t>
-  </si>
-  <si>
-    <t>Hearbeat</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Circuit</t>
-  </si>
-  <si>
-    <t>"Loss of Mains"</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>"PLMN Service Unavailable"</t>
-  </si>
-  <si>
-    <t>PLMN</t>
-  </si>
-  <si>
     <t>"RF Unit Overload"</t>
   </si>
   <si>
@@ -206,6 +127,75 @@
   </si>
   <si>
     <t>alarm.getDuration() &gt;$param * 20</t>
+  </si>
+  <si>
+    <t>"Auto-negotiation mismatch, on unit FSMFA, Ethernet interface EIF1"</t>
+  </si>
+  <si>
+    <t>Auto-negotiation</t>
+  </si>
+  <si>
+    <t>"LOS on unit FSMFA, RJ45 interface EIF1. "</t>
+  </si>
+  <si>
+    <t>"LOS on unit FSMFA, SFP interface EIF2"</t>
+  </si>
+  <si>
+    <t>LOS/EIF1.</t>
+  </si>
+  <si>
+    <t>LOS/EIF2</t>
+  </si>
+  <si>
+    <t>"BASE STATION SYNCHRONIZATION PROBLEMNTP Server Unavailable"</t>
+  </si>
+  <si>
+    <t>BASE STATION</t>
+  </si>
+  <si>
+    <t>"RF Module filter input power missing "</t>
+  </si>
+  <si>
+    <t>RF Module</t>
+  </si>
+  <si>
+    <t>"BASE STATION INFORMATION"</t>
+  </si>
+  <si>
+    <t>BASE STATION INFORMATION</t>
+  </si>
+  <si>
+    <t>"BASE STATION SECURITY PROBLEM"</t>
+  </si>
+  <si>
+    <t>BASE SECURITY PROBLEM</t>
+  </si>
+  <si>
+    <t>"BASE STATION LICENSE LIMITATION"</t>
+  </si>
+  <si>
+    <t>BASE LIMITATION</t>
+  </si>
+  <si>
+    <t>MANAGEMENT PROBLEM</t>
+  </si>
+  <si>
+    <t>"BASE STATION CONFIGURATION PROBLEM"</t>
+  </si>
+  <si>
+    <t>"BASE STATION SOFTWARE MANAGEMENT PROBLEM"</t>
+  </si>
+  <si>
+    <t>CONFIGURATION PROBLEM</t>
+  </si>
+  <si>
+    <t>"Province/ FLM"</t>
+  </si>
+  <si>
+    <t>"NAK_BO_RANN"</t>
+  </si>
+  <si>
+    <t>"FO_N_SUPPORT"</t>
   </si>
 </sst>
 </file>
@@ -674,16 +664,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -777,22 +767,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,19 +796,19 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,253 +822,253 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,129 +1076,51 @@
         <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21834223-DCBC-48E5-99A3-5AED85B2450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202994E9-1DE3-4995-BFCC-C8299E384297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
   <si>
     <t>RuleSet</t>
   </si>
@@ -69,15 +69,9 @@
     <t>"External Clock Reference Problem"</t>
   </si>
   <si>
-    <t>External</t>
-  </si>
-  <si>
     <t>Alarm Duration</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
     <t>"FJW"</t>
   </si>
   <si>
@@ -129,80 +123,242 @@
     <t>alarm.getDuration() &gt;$param * 20</t>
   </si>
   <si>
-    <t>"Auto-negotiation mismatch, on unit FSMFA, Ethernet interface EIF1"</t>
-  </si>
-  <si>
-    <t>Auto-negotiation</t>
-  </si>
-  <si>
-    <t>"LOS on unit FSMFA, RJ45 interface EIF1. "</t>
-  </si>
-  <si>
-    <t>"LOS on unit FSMFA, SFP interface EIF2"</t>
-  </si>
-  <si>
-    <t>LOS/EIF1.</t>
-  </si>
-  <si>
-    <t>LOS/EIF2</t>
-  </si>
-  <si>
-    <t>"BASE STATION SYNCHRONIZATION PROBLEMNTP Server Unavailable"</t>
-  </si>
-  <si>
-    <t>BASE STATION</t>
-  </si>
-  <si>
-    <t>"RF Module filter input power missing "</t>
-  </si>
-  <si>
-    <t>RF Module</t>
-  </si>
-  <si>
-    <t>"BASE STATION INFORMATION"</t>
-  </si>
-  <si>
-    <t>BASE STATION INFORMATION</t>
-  </si>
-  <si>
-    <t>"BASE STATION SECURITY PROBLEM"</t>
-  </si>
-  <si>
-    <t>BASE SECURITY PROBLEM</t>
-  </si>
-  <si>
-    <t>"BASE STATION LICENSE LIMITATION"</t>
-  </si>
-  <si>
-    <t>BASE LIMITATION</t>
-  </si>
-  <si>
-    <t>MANAGEMENT PROBLEM</t>
-  </si>
-  <si>
-    <t>"BASE STATION CONFIGURATION PROBLEM"</t>
-  </si>
-  <si>
-    <t>"BASE STATION SOFTWARE MANAGEMENT PROBLEM"</t>
-  </si>
-  <si>
-    <t>CONFIGURATION PROBLEM</t>
-  </si>
-  <si>
-    <t>"Province/ FLM"</t>
-  </si>
-  <si>
-    <t>"NAK_BO_RANN"</t>
-  </si>
-  <si>
-    <t>"FO_N_SUPPORT"</t>
+    <t>External Clock Reference Problem</t>
+  </si>
+  <si>
+    <t>RF Unit Overload</t>
+  </si>
+  <si>
+    <t>Clock Reference abnormal Alarm</t>
+  </si>
+  <si>
+    <t>RET Configuration Data Lost Alarm</t>
+  </si>
+  <si>
+    <t>Inter-System BBU Board Parameter Settings Conflict</t>
+  </si>
+  <si>
+    <t>Inter-System Site-Level Configuration Conflict</t>
+  </si>
+  <si>
+    <t>RF Unit ALD Current Out of Range</t>
+  </si>
+  <si>
+    <t>RF Unit ALD Switch Configuration Mismatch</t>
+  </si>
+  <si>
+    <t>RF Unit Clock Problem</t>
+  </si>
+  <si>
+    <t>RET Antenna Motor Fault</t>
+  </si>
+  <si>
+    <t>ALD Hardware Fault</t>
+  </si>
+  <si>
+    <t>RET Antenna Not Calibrated</t>
+  </si>
+  <si>
+    <t>RET Antenna Data Loss</t>
+  </si>
+  <si>
+    <t>RET Antenna Running Data and Configuration Mismatch</t>
+  </si>
+  <si>
+    <t>TMA Running Data and Configuration Mismatch</t>
+  </si>
+  <si>
+    <t>"RET Configuration Data Lost Alarm"</t>
+  </si>
+  <si>
+    <t>"Inter-System BBU Board Parameter Settings Conflict"</t>
+  </si>
+  <si>
+    <t>"Inter-System Site-Level Configuration Conflict"</t>
+  </si>
+  <si>
+    <t>"RF Unit ALD Current Out of Range"</t>
+  </si>
+  <si>
+    <t>"RF Unit ALD Switch Configuration Mismatch"</t>
+  </si>
+  <si>
+    <t>"RF Unit Clock Problem"</t>
+  </si>
+  <si>
+    <t>"RET Antenna Motor Fault"</t>
+  </si>
+  <si>
+    <t>"ALD Hardware Fault"</t>
+  </si>
+  <si>
+    <t>"RET Antenna Not Calibrated"</t>
+  </si>
+  <si>
+    <t>"RET Antenna Data Loss"</t>
+  </si>
+  <si>
+    <t>"RET Antenna Running Data and Configuration Mismatch"</t>
+  </si>
+  <si>
+    <t>"TMA Running Data and Configuration Mismatch"</t>
+  </si>
+  <si>
+    <t>"FO_H_SUPPORT"</t>
+  </si>
+  <si>
+    <t>"NAK_BO_RANH"</t>
+  </si>
+  <si>
+    <t>"Province/FLM"</t>
+  </si>
+  <si>
+    <t>"Clock Reference abnormal Alarm"</t>
+  </si>
+  <si>
+    <t>SET WorkOrdere</t>
+  </si>
+  <si>
+    <t>alarm.setWorkOrder($param);</t>
+  </si>
+  <si>
+    <t>Archive Disk Almost Full</t>
+  </si>
+  <si>
+    <t>"Archive Disk Almost Full"</t>
+  </si>
+  <si>
+    <t>"MINOR"</t>
+  </si>
+  <si>
+    <t>Auto Export Backup Failed</t>
+  </si>
+  <si>
+    <t>"Auto Export Backup Failed"</t>
+  </si>
+  <si>
+    <t>Autonomous Mode Activated</t>
+  </si>
+  <si>
+    <t>"Autonomous Mode Activated"</t>
+  </si>
+  <si>
+    <t>Calendar Clock All NTP Servers Unavailable</t>
+  </si>
+  <si>
+    <t>"Calendar Clock All NTP Servers Unavailable"</t>
+  </si>
+  <si>
+    <t>Calendar Clock Misaligned</t>
+  </si>
+  <si>
+    <t>"Calendar Clock Misaligned"</t>
+  </si>
+  <si>
+    <t>Calendar Clock NTP Server Unavailable</t>
+  </si>
+  <si>
+    <t>"Calendar Clock NTP Server Unavailable"</t>
+  </si>
+  <si>
+    <t>Calibration Failure</t>
+  </si>
+  <si>
+    <t>"Calibration Failure"</t>
+  </si>
+  <si>
+    <t>Certificate Management a Valid Certificate is Not Available</t>
+  </si>
+  <si>
+    <t>"Certificate Management a Valid Certificate is Not Available"</t>
+  </si>
+  <si>
+    <t>Certificate Management Automatic Enrollment Failed</t>
+  </si>
+  <si>
+    <t>"Certificate Management Automatic Enrollment Failed"</t>
+  </si>
+  <si>
+    <t>Certificate Management the Certificate is to Expire</t>
+  </si>
+  <si>
+    <t>"Certificate Management the Certificate is to Expire"</t>
+  </si>
+  <si>
+    <t>Climate Inconsistent Configuration</t>
+  </si>
+  <si>
+    <t>"Climate Inconsistent Configuration"</t>
+  </si>
+  <si>
+    <t>Clock Reference Missing For Long Time</t>
+  </si>
+  <si>
+    <t>"Clock Reference Missing For Long Time"</t>
+  </si>
+  <si>
+    <t>Clogged Air Filter</t>
+  </si>
+  <si>
+    <t>"Clogged Air Filter"</t>
+  </si>
+  <si>
+    <t>Feature Resource Missing</t>
+  </si>
+  <si>
+    <t>"Feature Resource Missing"</t>
+  </si>
+  <si>
+    <t>FrequencySyncIO Reference Failed</t>
+  </si>
+  <si>
+    <t>"FrequencySyncIO Reference Failed"</t>
+  </si>
+  <si>
+    <t>Grace Period Activated</t>
+  </si>
+  <si>
+    <t>"Grace Period Activated"</t>
+  </si>
+  <si>
+    <t>IKE Peer Certificate Fault</t>
+  </si>
+  <si>
+    <t>"IKE Peer Certificate Fault"</t>
+  </si>
+  <si>
+    <t>IKE Peer Not Reachable</t>
+  </si>
+  <si>
+    <t>"IKE Peer Not Reachable"</t>
+  </si>
+  <si>
+    <t>Incompatible HW Configuration</t>
+  </si>
+  <si>
+    <t>"Incompatible HW Configuration"</t>
+  </si>
+  <si>
+    <t>Inconsistent Configuration</t>
+  </si>
+  <si>
+    <t>"Inconsistent Configuration"</t>
+  </si>
+  <si>
+    <t>Indoor RAP Cable Insertion Loss</t>
+  </si>
+  <si>
+    <t>"Indoor RAP Cable Insertion Loss"</t>
+  </si>
+  <si>
+    <t>"NAK_BO_RANE"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +380,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -301,9 +462,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -326,8 +489,10 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{63C3ECE5-F868-46BB-80A4-6908A55310BC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FFB23A76-DF1D-4EA8-B877-98AE2FFD7C49}"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,25 +829,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="68" customWidth="1"/>
+    <col min="8" max="8" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +861,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,7 +874,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,12 +887,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -751,8 +917,11 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -762,30 +931,33 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -793,27 +965,30 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -822,305 +997,1037 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1130,8 +2037,36 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-2208.html" xr:uid="{D784C655-59D8-4B3D-BE8D-28BA7C88F8BA}"/>
+    <hyperlink ref="B13" r:id="rId2" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-4248.html" xr:uid="{D0E0222D-1020-4141-B2AA-D0318C60B5D7}"/>
+    <hyperlink ref="B14" r:id="rId3" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26273.html" xr:uid="{117E99FF-DE41-42D8-ABA4-A1A0C88B91CA}"/>
+    <hyperlink ref="B15" r:id="rId4" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26276.html" xr:uid="{C8202C5B-9991-402E-A969-44D9F853228A}"/>
+    <hyperlink ref="B16" r:id="rId5" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26530.html" xr:uid="{26C8CC7F-1150-4F86-A6D5-880509A3DE38}"/>
+    <hyperlink ref="B17" r:id="rId6" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26531.html" xr:uid="{96A02E1B-D3F8-4E6D-A0AF-1AFE9AD3D324}"/>
+    <hyperlink ref="B18" r:id="rId7" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26538.html" xr:uid="{2647F0E9-AF96-41E2-9E30-AFCFF753CD3B}"/>
+    <hyperlink ref="B19" r:id="rId8" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26751.html" xr:uid="{69062730-8F2D-4F5F-9099-F91917566B61}"/>
+    <hyperlink ref="B20" r:id="rId9" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26752.html" xr:uid="{F7AB145E-325F-46B4-AE4F-46B448036161}"/>
+    <hyperlink ref="B21" r:id="rId10" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26753.html" xr:uid="{E18B201A-C0B7-4F6F-908F-663E9C86D245}"/>
+    <hyperlink ref="B22" r:id="rId11" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26754.html" xr:uid="{553B67A3-4C4D-4349-B19F-3D3A4B38DA67}"/>
+    <hyperlink ref="B23" r:id="rId12" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26757.html" xr:uid="{452534DC-9955-475D-A1D3-6E6D3AD73483}"/>
+    <hyperlink ref="B24" r:id="rId13" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26758.html" xr:uid="{26758D50-39B2-4273-9F74-2B338C0F344A}"/>
+    <hyperlink ref="A12" r:id="rId14" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-2208.html" xr:uid="{B9CC2863-93C3-4117-97C8-823870EDBB45}"/>
+    <hyperlink ref="A13" r:id="rId15" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-4248.html" xr:uid="{D9D73CEA-67C8-4BDD-AA15-2CC1B84A7CDA}"/>
+    <hyperlink ref="A14" r:id="rId16" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26273.html" xr:uid="{EF41F72A-E1D5-4A32-8A11-FF46F58AAC6C}"/>
+    <hyperlink ref="A15" r:id="rId17" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26276.html" xr:uid="{4F5CB6F4-CE0A-40A0-AF46-938D0F3F41C0}"/>
+    <hyperlink ref="A16" r:id="rId18" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26530.html" xr:uid="{D2CEC48F-CD26-43DC-ACDD-9A980DB05371}"/>
+    <hyperlink ref="A17" r:id="rId19" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26531.html" xr:uid="{881D5B86-CD93-4B11-A6D9-D0B0F4E270E3}"/>
+    <hyperlink ref="A18" r:id="rId20" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26538.html" xr:uid="{E2ADD38B-4044-461E-99C7-6AFBAB506E91}"/>
+    <hyperlink ref="A19" r:id="rId21" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26751.html" xr:uid="{DF342705-68A9-43EB-8F09-AD88303FD543}"/>
+    <hyperlink ref="A20" r:id="rId22" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26752.html" xr:uid="{5B90D474-A21F-4C01-9FE1-7161A8F3E487}"/>
+    <hyperlink ref="A21" r:id="rId23" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26753.html" xr:uid="{B13FBD23-C95D-4D8D-A8DD-8C38B9834220}"/>
+    <hyperlink ref="A22" r:id="rId24" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26754.html" xr:uid="{0571BFDD-CCB8-4EEA-93D1-9350BC0B9F3C}"/>
+    <hyperlink ref="A23" r:id="rId25" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26757.html" xr:uid="{1A62E413-341E-4743-98C9-166D78CC2CF9}"/>
+    <hyperlink ref="A24" r:id="rId26" display="http://127.0.0.1:34518/pages/31186525/13/31186525/13/resources/mbsc/m-alarm/alm-26758.html" xr:uid="{793C3089-D079-4EB0-B394-D3FF9589C139}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -1139,9 +2074,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
